--- a/participants/participant_05/participant_05_task_orders.xlsx
+++ b/participants/participant_05/participant_05_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1649873017573501" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1649873019859026" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1649873019859026" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1649873019932646" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16498730200132258" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16502911267505567" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16502911302325354" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502911302325354" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502911302949843" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16502911303757212" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16498730175422237.csv</t>
+          <t>go_stims-1650291126718657.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730175578852.csv</t>
+          <t>GNG_stims-16502911267331543.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16498730175578852.csv</t>
+          <t>go_stims-16502911267331543.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1649873017573501.csv</t>
+          <t>GNG_stims-16502911267495275.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_3-16498730176047585.csv</t>
+          <t>TB-16502911297820344.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_9-1649873017921047.csv</t>
+          <t>TB-16502911300091178.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16498730187512887.csv</t>
+          <t>ZB-match_1-16502911267583895.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16498730190012918.csv</t>
+          <t>TB-16502911302119374.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-1649873018720043.csv</t>
+          <t>OB-16502911274411602.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-1649873018046047.csv</t>
+          <t>OB-16502911278682854.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16498730198452196.csv</t>
+          <t>ZB-match_7-16502911267998283.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16498730191596.csv</t>
+          <t>OB-16502911273425515.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_3-16498730177140982.csv</t>
+          <t>ZB-match_2-16502911270091844.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1649873019880726.csv</t>
+          <t>MM_stims-16502911302478347.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730198635137.csv</t>
+          <t>ZM_stims-16502911302361298.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1649873019910233.csv</t>
+          <t>MM_stims-16502911302780163.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730198841157.csv</t>
+          <t>ZM_stims-16502911302488623.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498730199306343.csv</t>
+          <t>MM_stims-16502911302940218.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1649873019911234.csv</t>
+          <t>ZM_stims-16502911302789814.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730199608603.csv</t>
+          <t>vSAT_stims-1650291130327612.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730199865348.csv</t>
+          <t>SAT_stims-16502911303119838.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730199346328.csv</t>
+          <t>vSAT_stims-16502911303599496.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730199468536.csv</t>
+          <t>SAT_stims-16502911302976038.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_05/participant_05_task_orders.xlsx
+++ b/participants/participant_05/participant_05_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16502911267505567" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16502911302325354" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502911302325354" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502911302949843" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16502911303757212" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16504777830103743" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16504777856354136" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16504777856363764" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16504777856833777" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504777857473779" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1650291126718657.csv</t>
+          <t>go_stims-165047778296838.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502911267331543.csv</t>
+          <t>GNG_stims-16504777829934082.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16502911267331543.csv</t>
+          <t>go_stims-16504777829943786.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502911267495275.csv</t>
+          <t>GNG_stims-16504777830094068.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16502911297820344.csv</t>
+          <t>ZB-match_1-16504777830634098.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16502911300091178.csv</t>
+          <t>TB-16504777843013763.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_1-16502911267583895.csv</t>
+          <t>ZB-match_6-1650477783118411.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16502911302119374.csv</t>
+          <t>OB-16504777834143763.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16502911274411602.csv</t>
+          <t>ZB-match_1-1650477783253409.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16502911278682854.csv</t>
+          <t>OB-16504777836364095.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_7-16502911267998283.csv</t>
+          <t>OB-1650477783847409.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16502911273425515.csv</t>
+          <t>TB-16504777856143782.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_2-16502911270091844.csv</t>
+          <t>TB-1650477784574378.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502911302478347.csv</t>
+          <t>MM_stims-16504777856513789.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911302361298.csv</t>
+          <t>ZM_stims-16504777856383796.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16502911302780163.csv</t>
+          <t>MM_stims-16504777856674047.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911302488623.csv</t>
+          <t>ZM_stims-16504777856513789.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502911302940218.csv</t>
+          <t>MM_stims-16504777856833777.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911302789814.csv</t>
+          <t>ZM_stims-16504777856674047.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650291130327612.csv</t>
+          <t>SAT_stims-16504777856863787.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16502911303119838.csv</t>
+          <t>vSAT_stims-16504777857153788.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502911303599496.csv</t>
+          <t>vSAT_stims-16504777857313766.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16502911302976038.csv</t>
+          <t>SAT_stims-16504777856993797.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_05/participant_05_task_orders.xlsx
+++ b/participants/participant_05/participant_05_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16504777830103743" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16504777856354136" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16504777856363764" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16504777856833777" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504777857473779" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1650996072255417" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16509960739195604" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16509960739195604" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509960739755964" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509960740635993" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-165047778296838.csv</t>
+          <t>go_stims-16509960722233825.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504777829934082.csv</t>
+          <t>GNG_stims-16509960722393818.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16504777829943786.csv</t>
+          <t>go_stims-16509960722393818.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16504777830094068.csv</t>
+          <t>GNG_stims-1650996072255417.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_1-16504777830634098.csv</t>
+          <t>ZB-match_5-1650996072431426.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16504777843013763.csv</t>
+          <t>TB-16509960734955962.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_6-1650477783118411.csv</t>
+          <t>TB-16509960731035974.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16504777834143763.csv</t>
+          <t>OB-16509960729435945.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_1-1650477783253409.csv</t>
+          <t>TB-16509960738955686.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16504777836364095.csv</t>
+          <t>ZB-match_7-1650996072271424.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-1650477783847409.csv</t>
+          <t>OB-16509960726715717.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16504777856143782.csv</t>
+          <t>OB-16509960727195618.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-1650477784574378.csv</t>
+          <t>ZB-match_8-1650996072487383.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16504777856513789.csv</t>
+          <t>MM_stims-16509960739435663.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504777856383796.csv</t>
+          <t>ZM_stims-16509960739195604.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16504777856674047.csv</t>
+          <t>MM_stims-16509960739595957.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16504777856513789.csv</t>
+          <t>ZM_stims-16509960739435663.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16504777856833777.csv</t>
+          <t>MM_stims-16509960739755964.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16504777856674047.csv</t>
+          <t>ZM_stims-16509960739595957.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16504777856863787.csv</t>
+          <t>SAT_stims-16509960739755964.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504777857153788.csv</t>
+          <t>vSAT_stims-16509960740235965.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504777857313766.csv</t>
+          <t>vSAT_stims-16509960740395606.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16504777856993797.csv</t>
+          <t>SAT_stims-16509960740075984.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_05/participant_05_task_orders.xlsx
+++ b/participants/participant_05/participant_05_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1650996072255417" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16509960739195604" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16509960739195604" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509960739755964" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509960740635993" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16511686580825233" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1651168660004697" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16511686600056565" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1651168660067454" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16511686601556132" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16509960722233825.csv</t>
+          <t>go_stims-1651168658052636.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16509960722393818.csv</t>
+          <t>GNG_stims-16511686580669339.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16509960722393818.csv</t>
+          <t>go_stims-16511686580699298.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1650996072255417.csv</t>
+          <t>GNG_stims-16511686580815232.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_5-1650996072431426.csv</t>
+          <t>ZB-match_2-16511686586308818.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16509960734955962.csv</t>
+          <t>ZB-match_4-16511686583058248.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16509960731035974.csv</t>
+          <t>OB-16511686590193365.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16509960729435945.csv</t>
+          <t>OB-16511686586707425.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16509960738955686.csv</t>
+          <t>TB-16511686599789274.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_7-1650996072271424.csv</t>
+          <t>TB-1651168659832636.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16509960726715717.csv</t>
+          <t>ZB-match_9-16511686584228742.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16509960727195618.csv</t>
+          <t>TB-1651168659288478.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_8-1650996072487383.csv</t>
+          <t>OB-16511686591856558.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16509960739435663.csv</t>
+          <t>MM_stims-16511686600200593.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16509960739195604.csv</t>
+          <t>ZM_stims-16511686600066543.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509960739595957.csv</t>
+          <t>MM_stims-16511686600507755.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16509960739435663.csv</t>
+          <t>ZM_stims-16511686600200593.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509960739755964.csv</t>
+          <t>MM_stims-1651168660066484.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509960739595957.csv</t>
+          <t>ZM_stims-16511686600507755.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16509960739755964.csv</t>
+          <t>vSAT_stims-16511686601137147.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509960740235965.csv</t>
+          <t>vSAT_stims-16511686601407137.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509960740395606.csv</t>
+          <t>SAT_stims-1651168660097286.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16509960740075984.csv</t>
+          <t>SAT_stims-1651168660071232.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_05/participant_05_task_orders.xlsx
+++ b/participants/participant_05/participant_05_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16511686580825233" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1651168660004697" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16511686600056565" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1651168660067454" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16511686601556132" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1651255489511969" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16512554913136995" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16512554913157086" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512554913777044" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16512554914407024" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1651168658052636.csv</t>
+          <t>go_stims-1651255489475971.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511686580669339.csv</t>
+          <t>GNG_stims-16512554894949653.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16511686580699298.csv</t>
+          <t>go_stims-16512554894970007.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16511686580815232.csv</t>
+          <t>GNG_stims-1651255489510986.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_2-16511686586308818.csv</t>
+          <t>OB-1651255490375018.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_4-16511686583058248.csv</t>
+          <t>OB-16512554906497378.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16511686590193365.csv</t>
+          <t>ZB-match_1-1651255489520965.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16511686586707425.csv</t>
+          <t>TB-1651255490744738.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16511686599789274.csv</t>
+          <t>ZB-match_9-16512554895739727.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-1651168659832636.csv</t>
+          <t>TB-16512554913017015.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_9-16511686584228742.csv</t>
+          <t>TB-1651255490906705.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-1651168659288478.csv</t>
+          <t>ZB-match_2-16512554896249664.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16511686591856558.csv</t>
+          <t>OB-16512554902530286.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16511686600200593.csv</t>
+          <t>MM_stims-1651255491329739.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16511686600066543.csv</t>
+          <t>ZM_stims-16512554913177035.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16511686600507755.csv</t>
+          <t>MM_stims-16512554913607008.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16511686600200593.csv</t>
+          <t>ZM_stims-16512554913307035.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1651168660066484.csv</t>
+          <t>MM_stims-16512554913767078.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16511686600507755.csv</t>
+          <t>ZM_stims-16512554913617017.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511686601137147.csv</t>
+          <t>SAT_stims-16512554913817.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511686601407137.csv</t>
+          <t>SAT_stims-16512554913927011.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-1651168660097286.csv</t>
+          <t>vSAT_stims-16512554914087362.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-1651168660071232.csv</t>
+          <t>vSAT_stims-1651255491424735.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_05/participant_05_task_orders.xlsx
+++ b/participants/participant_05/participant_05_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1651255489511969" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16512554913136995" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16512554913157086" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512554913777044" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16512554914407024" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="TOL_TO-16515889205568526" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16515889222112424" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="vSAT_TO-1651588922289682" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="RS_TO-16515889222926874" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="GNG_TO-16515889223542247" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1651255489475971.csv</t>
+          <t>MM_stims-16515889205237083.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16512554894949653.csv</t>
+          <t>ZM_stims-16515889205084095.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16512554894970007.csv</t>
+          <t>MM_stims-16515889205399442.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1651255489510986.csv</t>
+          <t>ZM_stims-16515889205237083.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MM_stims-16515889205558882.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ZM_stims-1651588920540949.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +536,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-1651255490375018.csv</t>
+          <t>OB-16515889216627681.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +546,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16512554906497378.csv</t>
+          <t>ZB-match_3-16515889206336958.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +556,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_1-1651255489520965.csv</t>
+          <t>ZB-match_6-16515889208740017.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-1651255490744738.csv</t>
+          <t>TB-16515889218418665.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +576,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_9-16512554895739727.csv</t>
+          <t>ZB-match_0-16515889206104681.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +586,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16512554913017015.csv</t>
+          <t>OB-16515889211457589.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +596,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-1651255490906705.csv</t>
+          <t>TB-1651588921877792.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +606,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_2-16512554896249664.csv</t>
+          <t>TB-16515889221897376.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +616,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16512554902530286.csv</t>
+          <t>OB-165158892176372.csv</t>
         </is>
       </c>
     </row>
@@ -606,6 +626,72 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>vSAT_stims-16515889222418518.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SAT_stims-16515889222278705.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>vSAT_stims-1651588922272629.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SAT_stims-16515889222159534.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -643,92 +729,6 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>eyes closed</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MM_stims-1651255491329739.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512554913177035.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MM_stims-16512554913607008.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512554913307035.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MM_stims-16512554913767078.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512554913617017.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16512554913817.csv</t>
+          <t>go_stims-16515889222947261.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16512554913927011.csv</t>
+          <t>GNG_stims-1651588922321323.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512554914087362.csv</t>
+          <t>go_stims-16515889223223808.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651255491424735.csv</t>
+          <t>GNG_stims-16515889223522243.csv</t>
         </is>
       </c>
     </row>
